--- a/trunk/documentation/0 architecture/analyze/questionnaire.xlsx
+++ b/trunk/documentation/0 architecture/analyze/questionnaire.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="11715" windowHeight="9570" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="11715" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="Background" sheetId="4" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="Solution" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Environment!$A$1:$E$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Environment!$A$1:$E$50</definedName>
   </definedNames>
   <calcPr calcId="101716"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="202">
   <si>
     <t>분류</t>
     <phoneticPr fontId="2"/>
@@ -154,23 +154,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>WAS</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Jeus 5.x</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Web Server</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Browser Tool</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>FireFox (Firebug Plugin)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -372,10 +360,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Velocity</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Struts (DynaActionForm)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -397,10 +381,6 @@
   </si>
   <si>
     <t>Struts (Taglib)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Spring 3</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -849,6 +829,53 @@
   <si>
     <t>Apache Maven</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Web Application Server</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Web Browser</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FireFox</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Fiddler</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Web Proxy</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Palos</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Http Watcher</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sitemesh</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Apache Tiles</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Apache Velocity</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Spring 3.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Spring 3.1</t>
   </si>
 </sst>
 </file>
@@ -919,7 +946,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1016,17 +1043,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1112,6 +1128,18 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1160,29 +1188,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1488,9 +1504,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A1:XFD6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1504,47 +1520,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" hidden="1">
-      <c r="A1" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="A1" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" hidden="1"/>
     <row r="3" spans="1:5" hidden="1">
       <c r="A3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
+        <v>43</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" hidden="1">
       <c r="A4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+        <v>45</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" ht="64.5" hidden="1" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+        <v>47</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:5" hidden="1">
       <c r="A6" s="2"/>
@@ -1554,41 +1570,41 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="33">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="33">
+      <c r="A8" s="36"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="E8" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="33">
-      <c r="A8" s="32"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1596,10 +1612,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1607,10 +1623,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1618,10 +1634,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1629,10 +1645,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1640,10 +1656,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1651,10 +1667,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1662,10 +1678,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1673,10 +1689,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1684,10 +1700,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1695,10 +1711,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1706,10 +1722,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1717,10 +1733,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1728,10 +1744,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1739,10 +1755,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1750,10 +1766,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1761,10 +1777,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1772,10 +1788,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1783,10 +1799,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1794,10 +1810,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1805,10 +1821,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1816,10 +1832,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1827,10 +1843,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="20" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1838,10 +1854,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="20" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1849,10 +1865,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="20" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1860,10 +1876,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="20" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1871,10 +1887,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="20" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1882,10 +1898,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="20" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1893,10 +1909,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="20" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1904,10 +1920,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="20" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1934,8 +1950,8 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A1:XFD6"/>
+      <pane ySplit="8" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1949,21 +1965,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" hidden="1">
-      <c r="A1" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="A1" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" hidden="1"/>
     <row r="3" spans="1:5" hidden="1">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1973,23 +1989,23 @@
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5" ht="64.5" hidden="1" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" hidden="1">
       <c r="B6" s="11"/>
@@ -1998,25 +2014,25 @@
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" ht="33">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="33">
-      <c r="A8" s="32"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
@@ -2029,10 +2045,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2040,10 +2056,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2051,10 +2067,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2062,10 +2078,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -2073,10 +2089,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2084,10 +2100,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2095,10 +2111,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2106,10 +2122,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2117,10 +2133,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -2128,10 +2144,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2139,10 +2155,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2150,10 +2166,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2161,10 +2177,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2172,10 +2188,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -2183,7 +2199,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>2</v>
@@ -2194,10 +2210,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -2205,10 +2221,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -2216,7 +2232,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>3</v>
@@ -2227,7 +2243,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>4</v>
@@ -2238,7 +2254,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>5</v>
@@ -2249,7 +2265,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>6</v>
@@ -2260,7 +2276,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>7</v>
@@ -2271,7 +2287,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>8</v>
@@ -2282,10 +2298,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2296,7 +2312,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -2307,7 +2323,7 @@
         <v>20</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -2318,7 +2334,7 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2340,7 +2356,7 @@
         <v>20</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2348,7 +2364,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>10</v>
@@ -2359,10 +2375,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -2370,10 +2386,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -2381,10 +2397,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -2392,7 +2408,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>21</v>
@@ -2403,10 +2419,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -2430,16 +2446,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A1:XFD6"/>
+      <pane ySplit="8" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="20.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.75" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.375" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.75" style="9" customWidth="1"/>
@@ -2448,47 +2464,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" hidden="1">
-      <c r="A1" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="A1" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" hidden="1"/>
     <row r="3" spans="1:5" hidden="1">
       <c r="A3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
+        <v>43</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" hidden="1">
       <c r="A4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+        <v>45</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5" ht="64.5" hidden="1" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
+        <v>47</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" hidden="1">
       <c r="A6" s="11"/>
@@ -2498,41 +2514,41 @@
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" ht="33">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="33">
+      <c r="A8" s="42"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="E8" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="33">
-      <c r="A8" s="38"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>84</v>
+        <v>199</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2540,10 +2556,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2551,10 +2567,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2562,10 +2578,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -2573,10 +2589,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2584,10 +2600,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2595,10 +2611,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2606,10 +2622,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2617,10 +2633,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -2628,10 +2644,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2639,10 +2655,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2650,10 +2666,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2661,10 +2677,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2672,10 +2688,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -2683,10 +2699,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2694,10 +2710,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -2705,10 +2721,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -2716,10 +2732,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -2727,10 +2743,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2738,10 +2754,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2749,10 +2765,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -2760,10 +2776,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -2771,76 +2787,76 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A32" s="14" t="s">
-        <v>191</v>
+    <row r="32" spans="1:5">
+      <c r="A32" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>193</v>
+        <v>91</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="14" t="s">
-        <v>191</v>
+      <c r="A33" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="24" t="s">
-        <v>191</v>
+      <c r="A34" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="23" t="s">
-        <v>190</v>
+    <row r="35" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A35" s="14" t="s">
+        <v>186</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="23" t="s">
-        <v>190</v>
+      <c r="A36" s="14" t="s">
+        <v>186</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="23" t="s">
-        <v>190</v>
+      <c r="A37" s="24" t="s">
+        <v>186</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2848,10 +2864,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="23" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2859,10 +2875,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="23" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -2870,47 +2886,80 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="23" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="A41" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
+      <c r="A42" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
+      <c r="A43" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2930,16 +2979,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A1:XFD6"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="20.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.75" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.75" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.375" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.75" style="9" customWidth="1"/>
@@ -2948,21 +2997,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" hidden="1" customHeight="1">
-      <c r="A1" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="A1" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" ht="16.5" hidden="1" customHeight="1"/>
     <row r="3" spans="1:5" ht="16.5" hidden="1" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="19" t="s">
         <v>24</v>
       </c>
@@ -2972,23 +3021,23 @@
       <c r="A4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" hidden="1" customHeight="1">
       <c r="A5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" hidden="1" customHeight="1"/>
     <row r="7" spans="1:5">
@@ -2998,146 +3047,172 @@
       <c r="B7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
+      <c r="C7" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="43" t="s">
-        <v>33</v>
+      <c r="A8" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
+        <v>146</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="44"/>
+      <c r="A9" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="B9" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
+        <v>168</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="45"/>
+      <c r="A10" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="B10" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
+        <v>147</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="48"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="42"/>
-      <c r="B12" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="48"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="42"/>
+      <c r="A13" s="20" t="s">
+        <v>190</v>
+      </c>
       <c r="B13" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
+        <v>141</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="48"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="42"/>
+      <c r="A14" s="20" t="s">
+        <v>190</v>
+      </c>
       <c r="B14" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
+        <v>159</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="48"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="42"/>
+      <c r="A15" s="20" t="s">
+        <v>190</v>
+      </c>
       <c r="B15" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
+        <v>142</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="48"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="42"/>
+      <c r="A16" s="20" t="s">
+        <v>190</v>
+      </c>
       <c r="B16" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="41"/>
+        <v>143</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="48"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="42"/>
+      <c r="A17" s="20" t="s">
+        <v>190</v>
+      </c>
       <c r="B17" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
+        <v>144</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="48"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="42"/>
+      <c r="A18" s="20" t="s">
+        <v>190</v>
+      </c>
       <c r="B18" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
+        <v>145</v>
+      </c>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="48"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="42"/>
+      <c r="A19" s="20" t="s">
+        <v>190</v>
+      </c>
       <c r="B19" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
+        <v>158</v>
+      </c>
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="48"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="42"/>
+      <c r="A20" s="20" t="s">
+        <v>190</v>
+      </c>
       <c r="B20" s="15" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="17"/>
       <c r="E20" s="21"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="42"/>
+      <c r="A21" s="20" t="s">
+        <v>190</v>
+      </c>
       <c r="B21" s="15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
       <c r="E21" s="21"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="42"/>
+      <c r="A22" s="20" t="s">
+        <v>190</v>
+      </c>
       <c r="B22" s="15" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="17"/>
@@ -3145,238 +3220,334 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="13" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="17"/>
       <c r="E23" s="21"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="13"/>
+      <c r="A24" s="28" t="s">
+        <v>165</v>
+      </c>
       <c r="B24" s="15" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="43"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="48"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="43"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="48"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="27"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="48"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="45"/>
-      <c r="B26" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="43" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="48"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="C32" s="43"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="48"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="43"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="48"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="43"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="48"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="43"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="48"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" s="43"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="48"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="43"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="48"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="44"/>
-      <c r="B28" s="15" t="s">
+      <c r="B38" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="41"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="44"/>
-      <c r="B29" s="15" t="s">
+      <c r="C38" s="43"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="48"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="41"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="44"/>
-      <c r="B30" s="15" t="s">
+      <c r="C39" s="43"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="48"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="43"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="48"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="43"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="48"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="41"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="44"/>
-      <c r="B31" s="15" t="s">
+      <c r="C42" s="43"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="48"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="43"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="48"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="43"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="48"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="41"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="44"/>
-      <c r="B32" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="41"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="44"/>
-      <c r="B33" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="41"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="45"/>
-      <c r="B34" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="41"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="41"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="44"/>
-      <c r="B36" s="15" t="s">
+      <c r="C45" s="43"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="48"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="43"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="48"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="41"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="44"/>
-      <c r="B37" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="41"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="44"/>
-      <c r="B38" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="41"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="44"/>
-      <c r="B39" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="41"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="44"/>
-      <c r="B40" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="44"/>
-      <c r="B41" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41" s="39"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="41"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="44"/>
-      <c r="B42" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="41"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="44"/>
-      <c r="B43" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="C43" s="39"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="41"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="44"/>
-      <c r="B44" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="41"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="44"/>
-      <c r="B45" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" s="39"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="41"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="45"/>
-      <c r="B46" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="41"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="48"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" s="43"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="48"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="43"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A35:A46"/>
+  <mergeCells count="39">
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A34"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
@@ -3385,34 +3556,6 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="A11:A22"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
